--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H2">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I2">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J2">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.1986275</v>
+        <v>2.717669</v>
       </c>
       <c r="N2">
-        <v>4.397254999999999</v>
+        <v>5.435338</v>
       </c>
       <c r="O2">
-        <v>0.4935104206364654</v>
+        <v>0.9400150323874275</v>
       </c>
       <c r="P2">
-        <v>0.3937861339617307</v>
+        <v>0.9126426135787402</v>
       </c>
       <c r="Q2">
-        <v>8.300824684581249</v>
+        <v>8.658969026074999</v>
       </c>
       <c r="R2">
-        <v>33.203298738325</v>
+        <v>34.6358761043</v>
       </c>
       <c r="S2">
-        <v>0.08431377322450638</v>
+        <v>0.1317749798691176</v>
       </c>
       <c r="T2">
-        <v>0.04825886469514645</v>
+        <v>0.09123882556517328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H3">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I3">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J3">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,27 +629,27 @@
         <v>0.520266</v>
       </c>
       <c r="O3">
-        <v>0.0389268141909519</v>
+        <v>0.05998496761257256</v>
       </c>
       <c r="P3">
-        <v>0.0465912340248027</v>
+        <v>0.0873573864212597</v>
       </c>
       <c r="Q3">
-        <v>0.654747390565</v>
+        <v>0.55255284085</v>
       </c>
       <c r="R3">
-        <v>3.92848434339</v>
+        <v>3.3153170451</v>
       </c>
       <c r="S3">
-        <v>0.006650450419700631</v>
+        <v>0.008408927120580952</v>
       </c>
       <c r="T3">
-        <v>0.00570979997736885</v>
+        <v>0.008733303949357049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.327317666666667</v>
+      </c>
+      <c r="H4">
+        <v>3.981953</v>
+      </c>
+      <c r="I4">
+        <v>0.0583987308700193</v>
+      </c>
+      <c r="J4">
+        <v>0.06247056753580275</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3.7754575</v>
-      </c>
-      <c r="H4">
-        <v>7.550915</v>
-      </c>
-      <c r="I4">
-        <v>0.1708449704380497</v>
-      </c>
-      <c r="J4">
-        <v>0.1225509496985904</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.083028666666667</v>
+        <v>2.717669</v>
       </c>
       <c r="N4">
-        <v>6.249086</v>
+        <v>5.435338</v>
       </c>
       <c r="O4">
-        <v>0.4675627651725827</v>
+        <v>0.9400150323874275</v>
       </c>
       <c r="P4">
-        <v>0.5596226320134666</v>
+        <v>0.9126426135787402</v>
       </c>
       <c r="Q4">
-        <v>7.864386202281668</v>
+        <v>3.607210075852334</v>
       </c>
       <c r="R4">
-        <v>47.18631721369</v>
+        <v>21.643260455114</v>
       </c>
       <c r="S4">
-        <v>0.07988074679384265</v>
+        <v>0.05489568489016585</v>
       </c>
       <c r="T4">
-        <v>0.06858228502607512</v>
+        <v>0.05701330202762223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,45 +735,45 @@
         <v>3.981953</v>
       </c>
       <c r="I5">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J5">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.1986275</v>
+        <v>0.173422</v>
       </c>
       <c r="N5">
-        <v>4.397254999999999</v>
+        <v>0.520266</v>
       </c>
       <c r="O5">
-        <v>0.4935104206364654</v>
+        <v>0.05998496761257256</v>
       </c>
       <c r="P5">
-        <v>0.3937861339617307</v>
+        <v>0.0873573864212597</v>
       </c>
       <c r="Q5">
-        <v>2.918277123169166</v>
+        <v>0.2301860843886667</v>
       </c>
       <c r="R5">
-        <v>17.509662739015</v>
+        <v>2.071674759498</v>
       </c>
       <c r="S5">
-        <v>0.0296417482501695</v>
+        <v>0.003503045979853449</v>
       </c>
       <c r="T5">
-        <v>0.02544917153079229</v>
+        <v>0.005457265508180523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.327317666666667</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H6">
-        <v>3.981953</v>
+        <v>10.705144</v>
       </c>
       <c r="I6">
-        <v>0.06006306454875144</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J6">
-        <v>0.06462688585491309</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.173422</v>
+        <v>2.717669</v>
       </c>
       <c r="N6">
-        <v>0.520266</v>
+        <v>5.435338</v>
       </c>
       <c r="O6">
-        <v>0.0389268141909519</v>
+        <v>0.9400150323874275</v>
       </c>
       <c r="P6">
-        <v>0.0465912340248027</v>
+        <v>0.9126426135787402</v>
       </c>
       <c r="Q6">
-        <v>0.2301860843886666</v>
+        <v>9.697679329778666</v>
       </c>
       <c r="R6">
-        <v>2.071674759498</v>
+        <v>58.186075978672</v>
       </c>
       <c r="S6">
-        <v>0.002338063753428398</v>
+        <v>0.1475824078606276</v>
       </c>
       <c r="T6">
-        <v>0.003011046363160468</v>
+        <v>0.1532754425080326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.327317666666667</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H7">
-        <v>3.981953</v>
+        <v>10.705144</v>
       </c>
       <c r="I7">
-        <v>0.06006306454875144</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J7">
-        <v>0.06462688585491309</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.083028666666667</v>
+        <v>0.173422</v>
       </c>
       <c r="N7">
-        <v>6.249086</v>
+        <v>0.520266</v>
       </c>
       <c r="O7">
-        <v>0.4675627651725827</v>
+        <v>0.05998496761257256</v>
       </c>
       <c r="P7">
-        <v>0.5596226320134666</v>
+        <v>0.0873573864212597</v>
       </c>
       <c r="Q7">
-        <v>2.764840749439778</v>
+        <v>0.6188358275893333</v>
       </c>
       <c r="R7">
-        <v>24.883566744958</v>
+        <v>5.569522448304</v>
       </c>
       <c r="S7">
-        <v>0.02808325254515355</v>
+        <v>0.009417642963880354</v>
       </c>
       <c r="T7">
-        <v>0.03616666796096034</v>
+        <v>0.01467139695302925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.188097999999999</v>
+        <v>1.2581685</v>
       </c>
       <c r="H8">
-        <v>15.564294</v>
+        <v>2.516337</v>
       </c>
       <c r="I8">
-        <v>0.2347690179109961</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J8">
-        <v>0.2526076655727249</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.1986275</v>
+        <v>2.717669</v>
       </c>
       <c r="N8">
-        <v>4.397254999999999</v>
+        <v>5.435338</v>
       </c>
       <c r="O8">
-        <v>0.4935104206364654</v>
+        <v>0.9400150323874275</v>
       </c>
       <c r="P8">
-        <v>0.3937861339617307</v>
+        <v>0.9126426135787402</v>
       </c>
       <c r="Q8">
-        <v>11.406694935495</v>
+        <v>3.4192855292265</v>
       </c>
       <c r="R8">
-        <v>68.44016961296998</v>
+        <v>13.677142116906</v>
       </c>
       <c r="S8">
-        <v>0.1158609567816656</v>
+        <v>0.05203578860528938</v>
       </c>
       <c r="T8">
-        <v>0.09947339603498112</v>
+        <v>0.03602872293678022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.188097999999999</v>
+        <v>1.2581685</v>
       </c>
       <c r="H9">
-        <v>15.564294</v>
+        <v>2.516337</v>
       </c>
       <c r="I9">
-        <v>0.2347690179109961</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J9">
-        <v>0.2526076655727249</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,27 +1001,27 @@
         <v>0.520266</v>
       </c>
       <c r="O9">
-        <v>0.0389268141909519</v>
+        <v>0.05998496761257256</v>
       </c>
       <c r="P9">
-        <v>0.0465912340248027</v>
+        <v>0.0873573864212597</v>
       </c>
       <c r="Q9">
-        <v>0.8997303313559998</v>
+        <v>0.218194097607</v>
       </c>
       <c r="R9">
-        <v>8.097572982203999</v>
+        <v>1.309164585642</v>
       </c>
       <c r="S9">
-        <v>0.009138809938013604</v>
+        <v>0.003320548062146823</v>
       </c>
       <c r="T9">
-        <v>0.01176930286315792</v>
+        <v>0.003448639177071766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.188097999999999</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H10">
-        <v>15.564294</v>
+        <v>34.770437</v>
       </c>
       <c r="I10">
-        <v>0.2347690179109961</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J10">
-        <v>0.2526076655727249</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.083028666666667</v>
+        <v>2.717669</v>
       </c>
       <c r="N10">
-        <v>6.249086</v>
+        <v>5.435338</v>
       </c>
       <c r="O10">
-        <v>0.4675627651725827</v>
+        <v>0.9400150323874275</v>
       </c>
       <c r="P10">
-        <v>0.5596226320134666</v>
+        <v>0.9126426135787402</v>
       </c>
       <c r="Q10">
-        <v>10.806956859476</v>
+        <v>31.49817958378433</v>
       </c>
       <c r="R10">
-        <v>97.262611735284</v>
+        <v>188.989077502706</v>
       </c>
       <c r="S10">
-        <v>0.1097692511913169</v>
+        <v>0.4793494431112982</v>
       </c>
       <c r="T10">
-        <v>0.1413649666745859</v>
+        <v>0.4978404884019</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9062475000000001</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H11">
-        <v>1.812495</v>
+        <v>34.770437</v>
       </c>
       <c r="I11">
-        <v>0.04100902403140717</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J11">
-        <v>0.02941669765504533</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.1986275</v>
+        <v>0.173422</v>
       </c>
       <c r="N11">
-        <v>4.397254999999999</v>
+        <v>0.520266</v>
       </c>
       <c r="O11">
-        <v>0.4935104206364654</v>
+        <v>0.05998496761257256</v>
       </c>
       <c r="P11">
-        <v>0.3937861339617307</v>
+        <v>0.0873573864212597</v>
       </c>
       <c r="Q11">
-        <v>1.99250067530625</v>
+        <v>2.009986241804667</v>
       </c>
       <c r="R11">
-        <v>7.970002701225</v>
+        <v>18.089876176242</v>
       </c>
       <c r="S11">
-        <v>0.02023838069963067</v>
+        <v>0.03058861808529573</v>
       </c>
       <c r="T11">
-        <v>0.01158388764350141</v>
+        <v>0.04765287449260799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.798348</v>
+      </c>
+      <c r="H12">
+        <v>5.395044</v>
+      </c>
+      <c r="I12">
+        <v>0.07912291345174399</v>
+      </c>
+      <c r="J12">
+        <v>0.0846397384802451</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.9062475000000001</v>
-      </c>
-      <c r="H12">
-        <v>1.812495</v>
-      </c>
-      <c r="I12">
-        <v>0.04100902403140717</v>
-      </c>
-      <c r="J12">
-        <v>0.02941669765504533</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.173422</v>
+        <v>2.717669</v>
       </c>
       <c r="N12">
-        <v>0.520266</v>
+        <v>5.435338</v>
       </c>
       <c r="O12">
-        <v>0.0389268141909519</v>
+        <v>0.9400150323874275</v>
       </c>
       <c r="P12">
-        <v>0.0465912340248027</v>
+        <v>0.9126426135787402</v>
       </c>
       <c r="Q12">
-        <v>0.157163253945</v>
+        <v>4.887314610812</v>
       </c>
       <c r="R12">
-        <v>0.9429795236700002</v>
+        <v>29.323887664872</v>
       </c>
       <c r="S12">
-        <v>0.001596350658622868</v>
+        <v>0.07437672805092875</v>
       </c>
       <c r="T12">
-        <v>0.001370560244683082</v>
+        <v>0.07724583213923196</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9062475000000001</v>
+        <v>1.798348</v>
       </c>
       <c r="H13">
-        <v>1.812495</v>
+        <v>5.395044</v>
       </c>
       <c r="I13">
-        <v>0.04100902403140717</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J13">
-        <v>0.02941669765504533</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>2.083028666666667</v>
+        <v>0.173422</v>
       </c>
       <c r="N13">
-        <v>6.249086</v>
+        <v>0.520266</v>
       </c>
       <c r="O13">
-        <v>0.4675627651725827</v>
+        <v>0.05998496761257256</v>
       </c>
       <c r="P13">
-        <v>0.5596226320134666</v>
+        <v>0.0873573864212597</v>
       </c>
       <c r="Q13">
-        <v>1.887739521595</v>
+        <v>0.311873106856</v>
       </c>
       <c r="R13">
-        <v>11.32643712957</v>
+        <v>2.806857961704</v>
       </c>
       <c r="S13">
-        <v>0.01917429267315363</v>
+        <v>0.004746185400815245</v>
       </c>
       <c r="T13">
-        <v>0.01646224976686084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.224085333333333</v>
-      </c>
-      <c r="H14">
-        <v>9.672256000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.145894573959072</v>
-      </c>
-      <c r="J14">
-        <v>0.1569802015421825</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.1986275</v>
-      </c>
-      <c r="N14">
-        <v>4.397254999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.4935104206364654</v>
-      </c>
-      <c r="P14">
-        <v>0.3937861339617307</v>
-      </c>
-      <c r="Q14">
-        <v>7.088562676213333</v>
-      </c>
-      <c r="R14">
-        <v>42.53137605728</v>
-      </c>
-      <c r="S14">
-        <v>0.07200049256311951</v>
-      </c>
-      <c r="T14">
-        <v>0.06181662667382938</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.224085333333333</v>
-      </c>
-      <c r="H15">
-        <v>9.672256000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.145894573959072</v>
-      </c>
-      <c r="J15">
-        <v>0.1569802015421825</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.173422</v>
-      </c>
-      <c r="N15">
-        <v>0.520266</v>
-      </c>
-      <c r="O15">
-        <v>0.0389268141909519</v>
-      </c>
-      <c r="P15">
-        <v>0.0465912340248027</v>
-      </c>
-      <c r="Q15">
-        <v>0.5591273266773333</v>
-      </c>
-      <c r="R15">
-        <v>5.032145940096001</v>
-      </c>
-      <c r="S15">
-        <v>0.005679210971972885</v>
-      </c>
-      <c r="T15">
-        <v>0.007313901307312521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.224085333333333</v>
-      </c>
-      <c r="H16">
-        <v>9.672256000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.145894573959072</v>
-      </c>
-      <c r="J16">
-        <v>0.1569802015421825</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.083028666666667</v>
-      </c>
-      <c r="N16">
-        <v>6.249086</v>
-      </c>
-      <c r="O16">
-        <v>0.4675627651725827</v>
-      </c>
-      <c r="P16">
-        <v>0.5596226320134666</v>
-      </c>
-      <c r="Q16">
-        <v>6.71586217311289</v>
-      </c>
-      <c r="R16">
-        <v>60.44275955801601</v>
-      </c>
-      <c r="S16">
-        <v>0.06821487042397957</v>
-      </c>
-      <c r="T16">
-        <v>0.08784967356104065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H17">
-        <v>23.032583</v>
-      </c>
-      <c r="I17">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J17">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.1986275</v>
-      </c>
-      <c r="N17">
-        <v>4.397254999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.4935104206364654</v>
-      </c>
-      <c r="P17">
-        <v>0.3937861339617307</v>
-      </c>
-      <c r="Q17">
-        <v>16.88002345994416</v>
-      </c>
-      <c r="R17">
-        <v>101.280140759665</v>
-      </c>
-      <c r="S17">
-        <v>0.1714550691173737</v>
-      </c>
-      <c r="T17">
-        <v>0.14720418738348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H18">
-        <v>23.032583</v>
-      </c>
-      <c r="I18">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J18">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.173422</v>
-      </c>
-      <c r="N18">
-        <v>0.520266</v>
-      </c>
-      <c r="O18">
-        <v>0.0389268141909519</v>
-      </c>
-      <c r="P18">
-        <v>0.0465912340248027</v>
-      </c>
-      <c r="Q18">
-        <v>1.331452203008667</v>
-      </c>
-      <c r="R18">
-        <v>11.983069827078</v>
-      </c>
-      <c r="S18">
-        <v>0.01352392844921351</v>
-      </c>
-      <c r="T18">
-        <v>0.01741662326911985</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.677527666666666</v>
-      </c>
-      <c r="H19">
-        <v>23.032583</v>
-      </c>
-      <c r="I19">
-        <v>0.3474193491117236</v>
-      </c>
-      <c r="J19">
-        <v>0.3738175996765436</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.083028666666667</v>
-      </c>
-      <c r="N19">
-        <v>6.249086</v>
-      </c>
-      <c r="O19">
-        <v>0.4675627651725827</v>
-      </c>
-      <c r="P19">
-        <v>0.5596226320134666</v>
-      </c>
-      <c r="Q19">
-        <v>15.99251021879311</v>
-      </c>
-      <c r="R19">
-        <v>143.932591969138</v>
-      </c>
-      <c r="S19">
-        <v>0.1624403515451363</v>
-      </c>
-      <c r="T19">
-        <v>0.2091967890239437</v>
+        <v>0.007393906341013136</v>
       </c>
     </row>
   </sheetData>
